--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q2">
-        <v>21.94396435541628</v>
+        <v>37.35743844071799</v>
       </c>
       <c r="R2">
-        <v>21.94396435541628</v>
+        <v>336.216945966462</v>
       </c>
       <c r="S2">
-        <v>0.0002191501208199059</v>
+        <v>0.0003005977189891951</v>
       </c>
       <c r="T2">
-        <v>0.0002191501208199059</v>
+        <v>0.0003342980841611812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N3">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P3">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q3">
-        <v>721.7704017777178</v>
+        <v>1141.003440450311</v>
       </c>
       <c r="R3">
-        <v>721.7704017777178</v>
+        <v>10269.0309640528</v>
       </c>
       <c r="S3">
-        <v>0.007208181174190493</v>
+        <v>0.009181117492904725</v>
       </c>
       <c r="T3">
-        <v>0.007208181174190493</v>
+        <v>0.01021042341458047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="N4">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O4">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P4">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q4">
-        <v>333.032558403994</v>
+        <v>0.7495151382659998</v>
       </c>
       <c r="R4">
-        <v>333.032558403994</v>
+        <v>6.745636244393999</v>
       </c>
       <c r="S4">
-        <v>0.003325931642482979</v>
+        <v>6.030995440657962E-06</v>
       </c>
       <c r="T4">
-        <v>0.003325931642482979</v>
+        <v>6.707137459912814E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29867130180628</v>
+        <v>19.7096195</v>
       </c>
       <c r="N5">
-        <v>1.29867130180628</v>
+        <v>39.419239</v>
       </c>
       <c r="O5">
-        <v>0.02037987186715166</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P5">
-        <v>0.02037987186715166</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q5">
-        <v>1739.858584825859</v>
+        <v>487.2570151300465</v>
       </c>
       <c r="R5">
-        <v>1739.858584825859</v>
+        <v>2923.542090780279</v>
       </c>
       <c r="S5">
-        <v>0.01737563062437377</v>
+        <v>0.003920727796741318</v>
       </c>
       <c r="T5">
-        <v>0.01737563062437377</v>
+        <v>0.002906856812654267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H6">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J6">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.7152766063691</v>
+        <v>1.511114</v>
       </c>
       <c r="N6">
-        <v>42.7152766063691</v>
+        <v>4.533342</v>
       </c>
       <c r="O6">
-        <v>0.6703250181912453</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P6">
-        <v>0.6703250181912453</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q6">
-        <v>57226.5981418356</v>
+        <v>2203.628813374699</v>
       </c>
       <c r="R6">
-        <v>57226.5981418356</v>
+        <v>19832.6593203723</v>
       </c>
       <c r="S6">
-        <v>0.5715109491508087</v>
+        <v>0.01773156357737065</v>
       </c>
       <c r="T6">
-        <v>0.5715109491508087</v>
+        <v>0.01971947010452949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.7092840273248</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N7">
-        <v>19.7092840273248</v>
+        <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.309295109941603</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P7">
-        <v>0.309295109941603</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q7">
-        <v>26404.9624936021</v>
+        <v>67305.15159721009</v>
       </c>
       <c r="R7">
-        <v>26404.9624936021</v>
+        <v>605746.3643748908</v>
       </c>
       <c r="S7">
-        <v>0.2637012449981356</v>
+        <v>0.5415728671667052</v>
       </c>
       <c r="T7">
-        <v>0.2637012449981356</v>
+        <v>0.6022892407045015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29867130180628</v>
+        <v>0.030318</v>
       </c>
       <c r="N8">
-        <v>1.29867130180628</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O8">
-        <v>0.02037987186715166</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P8">
-        <v>0.02037987186715166</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q8">
-        <v>71.23130191245606</v>
+        <v>44.21216292344199</v>
       </c>
       <c r="R8">
-        <v>71.23130191245606</v>
+        <v>397.909466310978</v>
       </c>
       <c r="S8">
-        <v>0.0007113732125809319</v>
+        <v>0.0003557544596494527</v>
       </c>
       <c r="T8">
-        <v>0.0007113732125809319</v>
+        <v>0.0003956385121368242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.7152766063691</v>
+        <v>19.7096195</v>
       </c>
       <c r="N9">
-        <v>42.7152766063691</v>
+        <v>39.419239</v>
       </c>
       <c r="O9">
-        <v>0.6703250181912453</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P9">
-        <v>0.6703250181912453</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q9">
-        <v>2342.905983977935</v>
+        <v>28742.16335157496</v>
       </c>
       <c r="R9">
-        <v>2342.905983977935</v>
+        <v>172452.9801094497</v>
       </c>
       <c r="S9">
-        <v>0.02339814817151369</v>
+        <v>0.2312746564786206</v>
       </c>
       <c r="T9">
-        <v>0.02339814817151369</v>
+        <v>0.1714687541782206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H10">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I10">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J10">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.7092840273248</v>
+        <v>1.511114</v>
       </c>
       <c r="N10">
-        <v>19.7092840273248</v>
+        <v>4.533342</v>
       </c>
       <c r="O10">
-        <v>0.309295109941603</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P10">
-        <v>0.309295109941603</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q10">
-        <v>1081.041799473089</v>
+        <v>90.81763406606001</v>
       </c>
       <c r="R10">
-        <v>1081.041799473089</v>
+        <v>817.3587065945401</v>
       </c>
       <c r="S10">
-        <v>0.01079615502143399</v>
+        <v>0.0007307667437523687</v>
       </c>
       <c r="T10">
-        <v>0.01079615502143399</v>
+        <v>0.0008126938661630457</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H11">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I11">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J11">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.29867130180628</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N11">
-        <v>1.29867130180628</v>
+        <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.02037987186715166</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P11">
-        <v>0.02037987186715166</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q11">
-        <v>181.0616691321618</v>
+        <v>2773.831323776927</v>
       </c>
       <c r="R11">
-        <v>181.0616691321618</v>
+        <v>24964.48191399234</v>
       </c>
       <c r="S11">
-        <v>0.001808227812600015</v>
+        <v>0.02231971472324798</v>
       </c>
       <c r="T11">
-        <v>0.001808227812600015</v>
+        <v>0.02482200429230173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>42.7152766063691</v>
+        <v>0.030318</v>
       </c>
       <c r="N12">
-        <v>42.7152766063691</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O12">
-        <v>0.6703250181912453</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P12">
-        <v>0.6703250181912453</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q12">
-        <v>5955.394000802253</v>
+        <v>1.82210543322</v>
       </c>
       <c r="R12">
-        <v>5955.394000802253</v>
+        <v>16.39894889898</v>
       </c>
       <c r="S12">
-        <v>0.05947536614931755</v>
+        <v>1.466162456114119E-05</v>
       </c>
       <c r="T12">
-        <v>0.05947536614931755</v>
+        <v>1.630535660071392E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.7092840273248</v>
+        <v>19.7096195</v>
       </c>
       <c r="N13">
-        <v>19.7092840273248</v>
+        <v>39.419239</v>
       </c>
       <c r="O13">
-        <v>0.309295109941603</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P13">
-        <v>0.309295109941603</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q13">
-        <v>2747.882284319241</v>
+        <v>1184.543992929905</v>
       </c>
       <c r="R13">
-        <v>2747.882284319241</v>
+        <v>7107.263957579431</v>
       </c>
       <c r="S13">
-        <v>0.02744256802708504</v>
+        <v>0.009531467819511428</v>
       </c>
       <c r="T13">
-        <v>0.02744256802708504</v>
+        <v>0.007066701286625875</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H14">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I14">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J14">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N14">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O14">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P14">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q14">
-        <v>26.58408399956512</v>
+        <v>423.3671637768541</v>
       </c>
       <c r="R14">
-        <v>26.58408399956512</v>
+        <v>3810.304473991686</v>
       </c>
       <c r="S14">
-        <v>0.0002654900967770326</v>
+        <v>0.003406636242690985</v>
       </c>
       <c r="T14">
-        <v>0.0002654900967770326</v>
+        <v>0.003788558253852139</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H15">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I15">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J15">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N15">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P15">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q15">
-        <v>874.3910023952791</v>
+        <v>12930.84886453464</v>
       </c>
       <c r="R15">
-        <v>874.3910023952791</v>
+        <v>116377.6397808117</v>
       </c>
       <c r="S15">
-        <v>0.008732373545414871</v>
+        <v>0.1040484528788379</v>
       </c>
       <c r="T15">
-        <v>0.008732373545414871</v>
+        <v>0.1157134477743017</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>280.168911</v>
+      </c>
+      <c r="H16">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J16">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.030318</v>
+      </c>
+      <c r="N16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q16">
+        <v>8.494161043698</v>
+      </c>
+      <c r="R16">
+        <v>76.447449393282</v>
+      </c>
+      <c r="S16">
+        <v>6.834851480821783E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.60111474979976E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>280.168911</v>
+      </c>
+      <c r="H17">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J17">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.7096195</v>
+      </c>
+      <c r="N17">
+        <v>39.419239</v>
+      </c>
+      <c r="O17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q17">
+        <v>5522.022631539366</v>
+      </c>
+      <c r="R17">
+        <v>33132.13578923619</v>
+      </c>
+      <c r="S17">
+        <v>0.04443311630912623</v>
+      </c>
+      <c r="T17">
+        <v>0.03294304362521516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="H16">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="I16">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="J16">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="N16">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="O16">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="P16">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="Q16">
-        <v>403.4533306656888</v>
-      </c>
-      <c r="R16">
-        <v>403.4533306656888</v>
-      </c>
-      <c r="S16">
-        <v>0.004029210252465425</v>
-      </c>
-      <c r="T16">
-        <v>0.004029210252465425</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>20.472042</v>
+      </c>
+      <c r="H18">
+        <v>40.944084</v>
+      </c>
+      <c r="I18">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J18">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.511114</v>
+      </c>
+      <c r="N18">
+        <v>4.533342</v>
+      </c>
+      <c r="O18">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P18">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q18">
+        <v>30.935589274788</v>
+      </c>
+      <c r="R18">
+        <v>185.613535648728</v>
+      </c>
+      <c r="S18">
+        <v>0.0002489241222024525</v>
+      </c>
+      <c r="T18">
+        <v>0.0001845541996206892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>20.472042</v>
+      </c>
+      <c r="H19">
+        <v>40.944084</v>
+      </c>
+      <c r="I19">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J19">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N19">
+        <v>138.461282</v>
+      </c>
+      <c r="O19">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P19">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q19">
+        <v>944.861726825948</v>
+      </c>
+      <c r="R19">
+        <v>5669.170360955688</v>
+      </c>
+      <c r="S19">
+        <v>0.00760285746825989</v>
+      </c>
+      <c r="T19">
+        <v>0.005636815196816065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.472042</v>
+      </c>
+      <c r="H20">
+        <v>40.944084</v>
+      </c>
+      <c r="I20">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J20">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030318</v>
+      </c>
+      <c r="N20">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P20">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q20">
+        <v>0.620671369356</v>
+      </c>
+      <c r="R20">
+        <v>3.724028216136</v>
+      </c>
+      <c r="S20">
+        <v>4.994250292786615E-06</v>
+      </c>
+      <c r="T20">
+        <v>3.70277439299752E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.472042</v>
+      </c>
+      <c r="H21">
+        <v>40.944084</v>
+      </c>
+      <c r="I21">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J21">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.7096195</v>
+      </c>
+      <c r="N21">
+        <v>39.419239</v>
+      </c>
+      <c r="O21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q21">
+        <v>403.4961582080191</v>
+      </c>
+      <c r="R21">
+        <v>1613.984632832076</v>
+      </c>
+      <c r="S21">
+        <v>0.003246743616286951</v>
+      </c>
+      <c r="T21">
+        <v>0.001604773278367627</v>
       </c>
     </row>
   </sheetData>
